--- a/Desktop/JOE/Pengecaian/KECAI 281124/2024110016.xlsx
+++ b/Desktop/JOE/Pengecaian/KECAI 281124/2024110016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\JOE\Pengecaian\KECAI 281124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474C1FF9-EEEC-4BF8-AA58-B1721E3AC30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77FE4EF-F4ED-4FA1-A2E6-4B6E71B77CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{38249C9A-01A6-4AF8-A1A8-1F534CECDBB5}"/>
   </bookViews>
@@ -1605,32 +1605,176 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1641,41 +1785,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1686,90 +1875,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1778,197 +1907,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8476,10 +8476,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318A5001-3373-4BA5-B707-AF234176FF51}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A48" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8498,46 +8501,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="150"/>
-      <c r="C1" s="148">
+      <c r="C1" s="149">
         <f>Form!B6</f>
         <v>2024110016</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
       <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
       <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="209" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="209"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -8552,15 +8555,15 @@
       <c r="C4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="158"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -8572,15 +8575,15 @@
       <c r="C5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="157" t="s">
+      <c r="D5" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="158"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
@@ -8592,15 +8595,15 @@
       <c r="C6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="112"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
@@ -8612,15 +8615,15 @@
       <c r="C7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="164"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="130"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
@@ -8630,15 +8633,15 @@
       <c r="C8" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="154"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
@@ -8650,15 +8653,15 @@
       <c r="C9" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="163" t="s">
+      <c r="D9" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="164"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="130"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
@@ -8670,19 +8673,19 @@
       <c r="C10" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="218" t="s">
+      <c r="D10" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
     </row>
     <row r="11" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="222"/>
-      <c r="B11" s="222"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -8692,10 +8695,10 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="217" t="s">
+      <c r="A12" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="217"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -8705,185 +8708,185 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="215" t="s">
+      <c r="A13" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="216"/>
-      <c r="C13" s="201" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="215" t="s">
+      <c r="A14" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="216"/>
-      <c r="C14" s="201" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="223"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:10" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="207" t="s">
+      <c r="A15" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="208"/>
-      <c r="C15" s="220" t="s">
+      <c r="B15" s="160"/>
+      <c r="C15" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
       <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="215" t="s">
+      <c r="A16" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="216"/>
-      <c r="C16" s="220" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="221"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
       <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="213" t="s">
+      <c r="A17" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="214"/>
-      <c r="C17" s="203" t="s">
+      <c r="B17" s="147"/>
+      <c r="C17" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="212" t="s">
+      <c r="A18" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="155" t="s">
+      <c r="B18" s="112"/>
+      <c r="C18" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
       <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:11" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="212" t="s">
+      <c r="A19" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="155" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
       <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="155" t="s">
+      <c r="A20" s="131"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
       <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="196"/>
-      <c r="B21" s="197"/>
-      <c r="C21" s="198" t="s">
+      <c r="A21" s="164"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:11" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="155" t="s">
+      <c r="A22" s="131"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
       <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:11" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="151"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="155" t="s">
+      <c r="A23" s="131"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="152"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="132"/>
     </row>
     <row r="24" spans="1:11" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="192" t="s">
+      <c r="A24" s="218"/>
+      <c r="B24" s="219"/>
+      <c r="C24" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="193"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8911,383 +8914,383 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="189" t="s">
+      <c r="A27" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="190"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="191"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="173"/>
       <c r="F27" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="168" t="s">
+      <c r="G27" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="169"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="177"/>
     </row>
     <row r="28" spans="1:11" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="194" t="s">
+      <c r="B28" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="194"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="195"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="152"/>
       <c r="F28" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="157" t="s">
+      <c r="G28" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="112"/>
     </row>
     <row r="29" spans="1:11" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="194" t="s">
+      <c r="B29" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="195"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="157" t="s">
+      <c r="G29" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:11" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="160"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="163"/>
       <c r="F30" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="159" t="s">
+      <c r="G30" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="160"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="163"/>
     </row>
     <row r="31" spans="1:11" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="152"/>
+      <c r="A31" s="142"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="143" t="s">
+      <c r="G31" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="144"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="110"/>
     </row>
     <row r="32" spans="1:11" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="152"/>
+      <c r="A32" s="142"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="132"/>
       <c r="F32" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="141" t="s">
+      <c r="G32" s="230" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="142"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="230"/>
+      <c r="J32" s="230"/>
+      <c r="K32" s="231"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="118"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="120"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="168"/>
       <c r="F33" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="161" t="s">
+      <c r="G33" s="206" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="162"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="207"/>
     </row>
     <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="118"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="120"/>
+      <c r="A34" s="166"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="168"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="157" t="s">
+      <c r="G34" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="158"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="112"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="123"/>
+      <c r="A35" s="220"/>
+      <c r="B35" s="221"/>
+      <c r="C35" s="221"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
       <c r="F35" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="165" t="s">
+      <c r="G35" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="166"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="209"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="124" t="s">
+      <c r="A36" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="167" t="s">
+      <c r="B36" s="224"/>
+      <c r="C36" s="224"/>
+      <c r="D36" s="224"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="169"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="177"/>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="127" t="s">
+      <c r="A37" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="129"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="126"/>
       <c r="F37" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="139" t="s">
+      <c r="G37" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="140"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="229"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="194" t="s">
+      <c r="B38" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="195"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="152"/>
       <c r="F38" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="143" t="s">
+      <c r="G38" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="144"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="157" t="s">
+      <c r="B39" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="158"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="112"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="143" t="s">
+      <c r="G39" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="144"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="110"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="130" t="s">
+      <c r="A40" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="132"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="123"/>
       <c r="F40" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="143" t="s">
+      <c r="G40" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="144"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="110"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="130" t="s">
+      <c r="A41" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="132"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="123"/>
       <c r="F41" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="143" t="s">
+      <c r="G41" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
-      <c r="K41" s="144"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="110"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="130" t="s">
+      <c r="A42" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="132"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="123"/>
       <c r="F42" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="141" t="s">
+      <c r="G42" s="230" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="142"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="230"/>
+      <c r="K42" s="231"/>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="127" t="s">
+      <c r="A43" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="129"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="157" t="s">
+      <c r="G43" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="158"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="112"/>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="224" t="s">
+      <c r="B44" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="224"/>
-      <c r="D44" s="224"/>
-      <c r="E44" s="225"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="114"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="157" t="s">
+      <c r="G44" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="158"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="112"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="153" t="s">
+      <c r="B45" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="153"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="154"/>
+      <c r="C45" s="204"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="205"/>
       <c r="F45" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="163" t="s">
+      <c r="G45" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="163"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="163"/>
-      <c r="K45" s="164"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="130"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="226" t="s">
+      <c r="A46" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="227"/>
-      <c r="C46" s="227"/>
-      <c r="D46" s="227"/>
-      <c r="E46" s="227"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="227"/>
-      <c r="H46" s="227"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="227"/>
-      <c r="K46" s="228"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="117"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="229"/>
-      <c r="B47" s="230"/>
-      <c r="C47" s="230"/>
-      <c r="D47" s="230"/>
-      <c r="E47" s="230"/>
-      <c r="F47" s="230"/>
-      <c r="G47" s="230"/>
-      <c r="H47" s="230"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="230"/>
-      <c r="K47" s="231"/>
+      <c r="A47" s="118"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="120"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="55"/>
@@ -9303,38 +9306,38 @@
       <c r="K48" s="55"/>
     </row>
     <row r="49" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="145" t="s">
+      <c r="A49" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="146"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="146"/>
-      <c r="K49" s="147"/>
+      <c r="B49" s="185"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="185"/>
+      <c r="G49" s="185"/>
+      <c r="H49" s="185"/>
+      <c r="I49" s="185"/>
+      <c r="J49" s="185"/>
+      <c r="K49" s="186"/>
     </row>
     <row r="50" spans="1:20" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="145" t="s">
+      <c r="A50" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="146"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="136" t="s">
+      <c r="B50" s="185"/>
+      <c r="C50" s="185"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="137"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="176" t="s">
+      <c r="G50" s="227"/>
+      <c r="H50" s="228"/>
+      <c r="I50" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="177"/>
-      <c r="K50" s="178"/>
+      <c r="J50" s="188"/>
+      <c r="K50" s="189"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -9346,25 +9349,25 @@
       <c r="T50"/>
     </row>
     <row r="51" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="133" t="s">
+      <c r="A51" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="134"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="182">
+      <c r="B51" s="197"/>
+      <c r="C51" s="197"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="193">
         <f>Form!B51</f>
         <v>6</v>
       </c>
-      <c r="G51" s="183"/>
-      <c r="H51" s="184"/>
-      <c r="I51" s="179">
+      <c r="G51" s="194"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="190">
         <f>Form!B25</f>
         <v>5</v>
       </c>
-      <c r="J51" s="180"/>
-      <c r="K51" s="181"/>
+      <c r="J51" s="191"/>
+      <c r="K51" s="192"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -9376,25 +9379,25 @@
       <c r="T51"/>
     </row>
     <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="133" t="s">
+      <c r="A52" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="134"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="182" t="str">
+      <c r="B52" s="197"/>
+      <c r="C52" s="197"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="193" t="str">
         <f>Form!B52</f>
         <v>NA</v>
       </c>
-      <c r="G52" s="183"/>
-      <c r="H52" s="184"/>
-      <c r="I52" s="179" t="str">
+      <c r="G52" s="194"/>
+      <c r="H52" s="195"/>
+      <c r="I52" s="190" t="str">
         <f>Form!C52</f>
         <v>NA</v>
       </c>
-      <c r="J52" s="180"/>
-      <c r="K52" s="181"/>
+      <c r="J52" s="191"/>
+      <c r="K52" s="192"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
@@ -9406,25 +9409,25 @@
       <c r="T52"/>
     </row>
     <row r="53" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="133" t="s">
+      <c r="A53" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="134"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="182" t="str">
+      <c r="B53" s="197"/>
+      <c r="C53" s="197"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="198"/>
+      <c r="F53" s="193" t="str">
         <f>Form!B53</f>
         <v>NA</v>
       </c>
-      <c r="G53" s="183"/>
-      <c r="H53" s="184"/>
-      <c r="I53" s="179" t="str">
+      <c r="G53" s="194"/>
+      <c r="H53" s="195"/>
+      <c r="I53" s="190" t="str">
         <f>Form!C53</f>
         <v>NA</v>
       </c>
-      <c r="J53" s="180"/>
-      <c r="K53" s="181"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="192"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
@@ -9436,22 +9439,22 @@
       <c r="T53"/>
     </row>
     <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="134"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="182" t="str">
+      <c r="B54" s="197"/>
+      <c r="C54" s="197"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="198"/>
+      <c r="F54" s="193" t="str">
         <f>Form!B54</f>
         <v>NA</v>
       </c>
-      <c r="G54" s="183"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="187"/>
+      <c r="G54" s="194"/>
+      <c r="H54" s="195"/>
+      <c r="I54" s="199"/>
+      <c r="J54" s="200"/>
+      <c r="K54" s="201"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
@@ -9470,32 +9473,32 @@
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="115" t="s">
+      <c r="A56" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="115"/>
+      <c r="B56" s="217"/>
+      <c r="C56" s="217"/>
+      <c r="D56" s="217"/>
+      <c r="E56" s="217"/>
+      <c r="F56" s="217"/>
+      <c r="G56" s="217"/>
+      <c r="H56" s="217"/>
+      <c r="I56" s="217"/>
+      <c r="J56" s="217"/>
+      <c r="K56" s="217"/>
     </row>
     <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="115"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="115"/>
+      <c r="A57" s="217"/>
+      <c r="B57" s="217"/>
+      <c r="C57" s="217"/>
+      <c r="D57" s="217"/>
+      <c r="E57" s="217"/>
+      <c r="F57" s="217"/>
+      <c r="G57" s="217"/>
+      <c r="H57" s="217"/>
+      <c r="I57" s="217"/>
+      <c r="J57" s="217"/>
+      <c r="K57" s="217"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -9515,11 +9518,11 @@
       <c r="F59" s="62"/>
       <c r="G59" s="62"/>
       <c r="H59" s="67"/>
-      <c r="I59" s="112" t="s">
+      <c r="I59" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="113"/>
-      <c r="K59" s="114"/>
+      <c r="J59" s="215"/>
+      <c r="K59" s="216"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="68"/>
@@ -9532,35 +9535,35 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="68"/>
-      <c r="B61" s="188" t="str">
+      <c r="B61" s="202" t="str">
         <f>Form!B2</f>
         <v>PERMIT               AMIR             NASOHA</v>
       </c>
-      <c r="C61" s="188"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="188"/>
-      <c r="F61" s="188"/>
-      <c r="G61" s="188"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="202"/>
+      <c r="E61" s="202"/>
+      <c r="F61" s="202"/>
+      <c r="G61" s="202"/>
       <c r="H61" s="63"/>
-      <c r="I61" s="109">
+      <c r="I61" s="211">
         <f>Form!B3</f>
         <v>45624</v>
       </c>
-      <c r="J61" s="110"/>
-      <c r="K61" s="111"/>
+      <c r="J61" s="212"/>
+      <c r="K61" s="213"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="68"/>
-      <c r="B62" s="188"/>
-      <c r="C62" s="188"/>
-      <c r="D62" s="188"/>
-      <c r="E62" s="188"/>
-      <c r="F62" s="188"/>
-      <c r="G62" s="188"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="202"/>
+      <c r="E62" s="202"/>
+      <c r="F62" s="202"/>
+      <c r="G62" s="202"/>
       <c r="H62" s="63"/>
-      <c r="I62" s="109"/>
-      <c r="J62" s="110"/>
-      <c r="K62" s="111"/>
+      <c r="I62" s="211"/>
+      <c r="J62" s="212"/>
+      <c r="K62" s="213"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="68"/>
@@ -9588,11 +9591,11 @@
       <c r="F64" s="80"/>
       <c r="G64" s="80"/>
       <c r="H64" s="81"/>
-      <c r="I64" s="173" t="s">
+      <c r="I64" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="J64" s="174"/>
-      <c r="K64" s="175"/>
+      <c r="J64" s="182"/>
+      <c r="K64" s="183"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="69" t="s">
@@ -9651,11 +9654,11 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="H69" s="63"/>
-      <c r="I69" s="170" t="s">
+      <c r="I69" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="J69" s="171"/>
-      <c r="K69" s="172"/>
+      <c r="J69" s="179"/>
+      <c r="K69" s="180"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="68"/>
@@ -9821,57 +9824,39 @@
     <row r="95" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="A46:K47"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="I61:K62"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A56:K57"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
     <mergeCell ref="I69:K69"/>
     <mergeCell ref="I64:K64"/>
     <mergeCell ref="A50:E50"/>
@@ -9888,46 +9873,64 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="B61:G62"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="I61:K62"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="A56:K57"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="A46:K47"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
   </mergeCells>
   <conditionalFormatting sqref="A8">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>LEN(A8)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.64950980392156865" right="0.7" top="0.83333333333333337" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LPKKK/HMS/001A&amp;C&amp;"-,Bold"UNIT ANALISIS TRADISIONAL      
 BORANG UJIAN PENGECAIAN      &amp;R1 April 2024</oddHeader>
